--- a/biology/Microbiologie/Desulfovibrio/Desulfovibrio.xlsx
+++ b/biology/Microbiologie/Desulfovibrio/Desulfovibrio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desulfovibrio est un genre de bacilles à Gram négatif, pouvant prendre des formes variées (droits, incurvés ou de forme sigmoïde).
-C’est un genre des bacilles non sporulés, mesurant de 0,5 à 1,5 µm de large sur 2,5 à 10,0 µm de long et mobiles grâce à un unique flagelle polaire ou parfois une ciliature lophotriche. (cf. Tableau 1 : Caractéristiques des bactéries du genre Desulfovibrio). Les espèces du genre Desulfovibrio sont parfois halophiles, anaérobies, à métabolisme généralement respiratoire (respiration anaérobie), utilisant les sulfates ou d'autres composés soufrés comme accepteurs finaux d'électrons (la réduction conduit à la formation d'hydrogène sulfuré). Mais elles peuvent être aussi mésophiles, chimio-organotrophes, oxydant de manière incomplète les composés organiques, synthétisant une désulfoviridine (sulfite réductase) et n'hydrolysant pas la gélatine  [4]. On peut retrouver les espèces de Desulfovibrio principalement dans les sédiments ou les boues et l'environnement marin mais aussi dans l'intestin de l'homme et des animaux. 
-Tableau 1 : Caractéristiques des bactéries du genre Desulfovibrio[5].
+C’est un genre des bacilles non sporulés, mesurant de 0,5 à 1,5 µm de large sur 2,5 à 10,0 µm de long et mobiles grâce à un unique flagelle polaire ou parfois une ciliature lophotriche. (cf. Tableau 1 : Caractéristiques des bactéries du genre Desulfovibrio). Les espèces du genre Desulfovibrio sont parfois halophiles, anaérobies, à métabolisme généralement respiratoire (respiration anaérobie), utilisant les sulfates ou d'autres composés soufrés comme accepteurs finaux d'électrons (la réduction conduit à la formation d'hydrogène sulfuré). Mais elles peuvent être aussi mésophiles, chimio-organotrophes, oxydant de manière incomplète les composés organiques, synthétisant une désulfoviridine (sulfite réductase) et n'hydrolysant pas la gélatine  . On peut retrouver les espèces de Desulfovibrio principalement dans les sédiments ou les boues et l'environnement marin mais aussi dans l'intestin de l'homme et des animaux. 
+Tableau 1 : Caractéristiques des bactéries du genre Desulfovibrio.
 Desulfovibrio desulfuricans est une des bactéries capables de réduire les sulfates en sulfures, puis en hydrogène sulfuré. Bien qu’étant anaérobie stricte, cette bactérie résiste bien à l’oxygène. On la retrouve dans les sols, mais aussi dans les vases, même salées, sous les pierres où leur présence est attestée par un dépôt de sulfure de fer noirâtre et une forte odeur d’H2S.
 Pour les réactions concernant la respiration anaérobie des espèces de Desulfuvibrio :
 SO42−  + 8 e- + 8 H+ ⇒ S2− + 4 H2O.
 L’accepteur final correspond à l’ion sulfate SO24− ;  les sulfates sont ainsi réduit en sulfure. Ce dernier est souvent ensuite réduit en hydrogène sulfureux (H2S). 
-Ces bactéries sont très importantes pour le recyclage du soufre dans les écosystèmes. Des quantités significatives de sulfate sont présentes dans presque tous les habitats aquatiques et terrestres, aussi les bactéries réductrices de sulfate sont-elles répandues et actives dans les lieux rendus anoxiques par la digestion microbienne des matières organiques. Les espèces de Desulfovibrio et d’autres bactéries réductrices de sulfate prospèrent dans des habitats comme les boues et les sédiments des lacs et des cours d’eau pollués, les lagunes et les digesteurs d’eaux dégouts, et les sols gorgés d’eau[6].
+Ces bactéries sont très importantes pour le recyclage du soufre dans les écosystèmes. Des quantités significatives de sulfate sont présentes dans presque tous les habitats aquatiques et terrestres, aussi les bactéries réductrices de sulfate sont-elles répandues et actives dans les lieux rendus anoxiques par la digestion microbienne des matières organiques. Les espèces de Desulfovibrio et d’autres bactéries réductrices de sulfate prospèrent dans des habitats comme les boues et les sédiments des lacs et des cours d’eau pollués, les lagunes et les digesteurs d’eaux dégouts, et les sols gorgés d’eau.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries du genre Desulfovibrio sont l’un des groupes principaux à être responsable du processus de corrosion anaérobie. 
 De plus, les espèces du genre Desulfovibrio peuvent être présentes dans la colonne de Winogradsky.
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2020)[7] et ITIS      (30 novembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2020) et ITIS      (30 novembre 2020) :
 Desulfovibrio acrylicus van der Maarel &amp; al., 1997
 Desulfovibrio aerotolerans Mogensen &amp; al., 2009
 Desulfovibrio aespoeensis Motamedi &amp; Pedersen, 1998
@@ -611,7 +627,7 @@
 Desulfovibrio vietnamensis Dang &amp; al., 2002
 Desulfovibrio vulgaris Postgate &amp; Campbell, 1966
 Desulfovibrio zosterae Nielsen &amp; al., 1999
-Selon NCBI  (30 novembre 2020)[2] :
+Selon NCBI  (30 novembre 2020) :
 Candidatus Desulfovibrio kirbyi Takeuchi &amp; al. 2020
 Candidatus Desulfovibrio trichonymphae Sato &amp; al. 2009
 Desulfomonas oviles
